--- a/biology/Histoire de la zoologie et de la botanique/Louis_Jérôme_Reiche/Louis_Jérôme_Reiche.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Jérôme_Reiche/Louis_Jérôme_Reiche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_J%C3%A9r%C3%B4me_Reiche</t>
+          <t>Louis_Jérôme_Reiche</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Jérôme Reiche est un entomologiste français, né le 20 décembre 1799 à Gorinchem, Pays-Bas et mort le 16 mai 1890 à Neuilly-sur-Seine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_J%C3%A9r%C3%B4me_Reiche</t>
+          <t>Louis_Jérôme_Reiche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Jérôme Reiche fait de nombreux voyages en Europe et rassemble une riche collection d’insectes, principalement de coléoptères. Il fait paraître 65 articles scientifiques et participe à la fondation de la Société entomologique de France dont il assurera à six reprises la présidence. Marchand et manufacturier à Paris, il souffre de pertes sévères lors de la guerre de 1870, il doit alors vendre sa collection et sa bibliothèque.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_J%C3%A9r%C3%B4me_Reiche</t>
+          <t>Louis_Jérôme_Reiche</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Edward Oliver Essig (1931). A History of Entomology. Mac Millan (New York) : vii + 1029 p.
 Jean Gouillard (2004). Histoire des entomologistes français, 1750-1950. Édition entièrement revue et augmentée. Boubée (Paris) : 287 p.</t>
